--- a/biology/Botanique/Osmanthus/Osmanthus.xlsx
+++ b/biology/Botanique/Osmanthus/Osmanthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Osmanthus comprend des arbustes ou des petits arbres aux fleurs blanches odorantes et aux feuilles soit entières (feuilles faisant penser au troène) soit épineuses (les feuilles d'Osmanthus heterophyllus notamment qui rappellent celles du houx). Ils sont originaires principalement d'Asie tempérée.
 Parmi les différentes espèces, on peut citer les suivantes, qui sont cultivées comme arbustes d'ornement en particulier pour la création de haies.
@@ -512,10 +524,12 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Osmanthus est composé d'environ 32 espèces.
-Selon World Checklist of Selected Plant Families (WCSP)  (20 mars 2012)[1]:
+Selon World Checklist of Selected Plant Families (WCSP)  (20 mars 2012):
 Osmanthus americanus (L.) A.Gray (1878)
 Osmanthus americanus var. americanus
 Osmanthus americanus var. megacarpus (Small) P.S.Green(1958
@@ -565,7 +579,7 @@
 Osmanthus yunnanensis (Franch.) P.S.Green (1958), originaire de Chine
 Osmanthus × fortunei (O. fragrans × O. heterophyllus) Carrière
 Osmanthus × burkwoodii (O. delavayi × O. decorus), à l'odeur de jasmin.
-Les fleurs de l'Osmanthus fragrans sont cultivées pour la fabrication de la concrète d’osmanthus et de l'absolue d’osmanthus utilisée dans la fabrication des parfums[2]. Ses fleurs séchées sont utilisées pour parfumer certains thés. 
+Les fleurs de l'Osmanthus fragrans sont cultivées pour la fabrication de la concrète d’osmanthus et de l'absolue d’osmanthus utilisée dans la fabrication des parfums. Ses fleurs séchées sont utilisées pour parfumer certains thés. 
 L’osmanthus a donné son nom à la ville de Guilin, en Chine.
 </t>
         </is>
